--- a/ocms/src/test/resources/DownloadedFiles/Template Screen (2).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Template Screen (2).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t xml:space="preserve">Template Name</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Email, Home, Supervisor, SupervisorAOT, TextChat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Fax</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -272,14 +269,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:B1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
